--- a/data/case1/20/Q2_1.xlsx
+++ b/data/case1/20/Q2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.078251485611197324</v>
+        <v>0.084042413456785425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0021378186099987317</v>
+        <v>-0.0059999999395081716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999732032165</v>
+        <v>-0.0039999999532653874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999476889627</v>
+        <v>-0.007999999912545519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999732703841</v>
+        <v>-0.0029999999615029083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999726501017</v>
+        <v>-0.0019999999711561856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999283126861</v>
+        <v>-0.0099999998926678657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999303941323</v>
+        <v>-0.0099999998931825651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999802697843</v>
+        <v>-0.0019999999755455633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.00199999998519651</v>
+        <v>-0.001999999978844258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.038973059414654898</v>
+        <v>-0.0029999999691732171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999770315426</v>
+        <v>-0.0034999999652836067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999784774971</v>
+        <v>-0.0034999999721669894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999537410105</v>
+        <v>0.03445413421544874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999944545479</v>
+        <v>-0.00099999999928890304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999990254242</v>
+        <v>-0.0019999999887021502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999936892721</v>
+        <v>-0.0019999999878930197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.022821416609628109</v>
+        <v>-0.003999999967744472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.017655585793264983</v>
+        <v>-0.0039999999593334223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999750914839</v>
+        <v>0.0086011840801081263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999747806214</v>
+        <v>-0.0039999999601318947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999745239379</v>
+        <v>0.0020624633656112223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999681364926</v>
+        <v>-0.004999999939853339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.040581630383399236</v>
+        <v>-0.019999999784526601</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999883181019</v>
+        <v>-0.019999999781303401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999681512008</v>
+        <v>-0.0024999999661829975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999655306304</v>
+        <v>-0.002499999966200761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999574329408</v>
+        <v>-0.0019999999717921213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999211498576</v>
+        <v>-0.0069999999228764764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999616983324</v>
+        <v>-0.059999999397998049</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999147842829</v>
+        <v>0.069486373468924612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998975466298</v>
+        <v>-0.0099999999072615253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999314641599</v>
+        <v>0.010122491249346055</v>
       </c>
     </row>
   </sheetData>
